--- a/document/costPercent.xlsx
+++ b/document/costPercent.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BBB37AE-A171-4C98-92C9-037725538277}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6FECF-0AA5-44C6-B0D9-D22FB5EB9D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
+    <workbookView xWindow="-21225" yWindow="2550" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>원가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +127,77 @@
   </si>
   <si>
     <t>3~6</t>
+  </si>
+  <si>
+    <t>부가세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순매출기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종합소득세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순익 5억이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS 충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표마진율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구입원가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순마진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소득세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충당금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표이익률대비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표판매량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표매출액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일목표순이익</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>택배비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,6 +205,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000000000000000%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,9 +248,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,25 +584,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253AAD90-7FCA-4699-9EB2-A6AC980F8A63}">
-  <dimension ref="B3:N26"/>
+  <dimension ref="B3:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -537,52 +631,52 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B4">
-        <v>5000</v>
-      </c>
-      <c r="C4">
-        <v>6900</v>
-      </c>
-      <c r="D4">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>7450</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13900</v>
+      </c>
+      <c r="D4" s="2">
         <f>C4/B4</f>
-        <v>1.38</v>
-      </c>
-      <c r="E4">
+        <v>1.8657718120805369</v>
+      </c>
+      <c r="E4" s="1">
         <v>100</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <f>E4*C4</f>
-        <v>690000</v>
-      </c>
-      <c r="G4">
+        <v>1390000</v>
+      </c>
+      <c r="G4" s="1">
         <f>E4*B4</f>
-        <v>500000</v>
-      </c>
-      <c r="H4">
+        <v>745000</v>
+      </c>
+      <c r="H4" s="1">
         <f>F4*0.0909</f>
-        <v>62720.999999999993</v>
-      </c>
-      <c r="I4">
+        <v>126350.99999999999</v>
+      </c>
+      <c r="I4" s="1">
         <f>F4-G4-H4</f>
-        <v>127279</v>
+        <v>518649</v>
       </c>
       <c r="L4">
         <f>B4/C4*100</f>
-        <v>72.463768115942031</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+        <v>53.597122302158276</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="J6">
         <f>I8/I4</f>
-        <v>0.31427729633325213</v>
+        <v>0.73680928720579819</v>
       </c>
       <c r="N6">
         <f>L4-L8</f>
-        <v>21.958717610891526</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+        <v>1.1323335697639152</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>0</v>
       </c>
@@ -611,88 +705,98 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B8">
-        <v>5000</v>
-      </c>
-      <c r="C8">
-        <v>9900</v>
-      </c>
-      <c r="D8">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="1">
+        <v>7450</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14200</v>
+      </c>
+      <c r="D8" s="2">
         <f>C8/B8</f>
-        <v>1.98</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
+        <v>1.9060402684563758</v>
+      </c>
+      <c r="E8" s="1">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1">
         <f>E8*C8</f>
-        <v>99000</v>
-      </c>
-      <c r="G8">
+        <v>994000</v>
+      </c>
+      <c r="G8" s="1">
         <f>E8*B8</f>
-        <v>50000</v>
-      </c>
-      <c r="H8">
+        <v>521500</v>
+      </c>
+      <c r="H8" s="1">
         <f>F8*0.0909</f>
-        <v>8999.1</v>
-      </c>
-      <c r="I8">
+        <v>90354.599999999991</v>
+      </c>
+      <c r="I8" s="1">
         <f>F8-G8-H8</f>
-        <v>40000.9</v>
+        <v>382145.4</v>
       </c>
       <c r="L8">
         <f>B8/C8*100</f>
-        <v>50.505050505050505</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+        <v>52.464788732394361</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="E11">
         <f>E4/E8</f>
-        <v>10</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="F11">
         <f>F8/F4</f>
-        <v>0.14347826086956522</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+        <v>0.71510791366906479</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>10000000</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>10000000000</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.4">
+      <c r="I17">
+        <f>L4</f>
+        <v>53.597122302158276</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G18" t="s">
         <v>16</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19" t="s">
         <v>17</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20" t="s">
         <v>18</v>
       </c>
@@ -700,7 +804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21" t="s">
         <v>19</v>
       </c>
@@ -708,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G22" t="s">
         <v>20</v>
       </c>
@@ -716,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
         <v>21</v>
       </c>
@@ -724,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G24" t="s">
         <v>22</v>
       </c>
@@ -732,7 +836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G25" t="s">
         <v>23</v>
       </c>
@@ -740,12 +844,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="7:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G26" t="s">
         <v>24</v>
       </c>
       <c r="I26">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <f>SUM(I17:I26)</f>
+        <v>95.097122302158283</v>
       </c>
     </row>
   </sheetData>
@@ -753,4 +863,211 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7549AF1C-E967-42EE-89AB-7564CAF939E2}">
+  <dimension ref="B2:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="3">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="1">
+        <v>15416</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C10*D2</f>
+        <v>1322.6928</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(C10-C11-C13-C12)/11</f>
+        <v>394.84610909090912</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C10-C11-C13-C14-C12</f>
+        <v>3948.4610909090907</v>
+      </c>
+      <c r="D15">
+        <f>C15*0.4</f>
+        <v>1579.3844363636363</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C14*D4</f>
+        <v>157.93844363636367</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C10*D6</f>
+        <v>770.80000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15-C16-C17+64</f>
+        <v>3083.722647272727</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5">
+        <f>-(D7-((C18)/C10))</f>
+        <v>3.3902910789224139E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C23/C18</f>
+        <v>22.699836530989145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21*C10</f>
+        <v>349940.67996172869</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1">
+        <v>70000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/document/costPercent.xlsx
+++ b/document/costPercent.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFC6FECF-0AA5-44C6-B0D9-D22FB5EB9D7E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8585A25C-134A-4211-A2E0-536A5D757D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21225" yWindow="2550" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
+    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
   <si>
     <t>원가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,10 +142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>순익 5억이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CS 충당금</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +195,10 @@
   </si>
   <si>
     <t>택배비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순익 4,600만원 이하</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -205,9 +206,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
-    <numFmt numFmtId="177" formatCode="0.0000000000000000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -248,7 +248,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,9 +262,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -586,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253AAD90-7FCA-4699-9EB2-A6AC980F8A63}">
   <dimension ref="B3:N27"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -869,14 +866,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7549AF1C-E967-42EE-89AB-7564CAF939E2}">
   <dimension ref="B2:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
@@ -885,10 +884,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="6"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="3">
         <v>8.5800000000000001E-2</v>
       </c>
@@ -904,36 +903,84 @@
       <c r="D3" s="4">
         <v>0.1</v>
       </c>
+      <c r="I3">
+        <v>2450</v>
+      </c>
+      <c r="J3">
+        <v>2138</v>
+      </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f>I3/11</f>
+        <v>222.72727272727272</v>
+      </c>
+      <c r="J4" s="1">
+        <f>I3-I4-I5</f>
+        <v>2138.1818181818185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f>I4*0.4</f>
+        <v>89.090909090909093</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="4">
-        <v>0.2</v>
+        <v>0.21</v>
+      </c>
+      <c r="H7">
+        <v>26000000</v>
+      </c>
+      <c r="I7">
+        <f>H7*0.15</f>
+        <v>3900000</v>
+      </c>
+      <c r="J7">
+        <f>I7-1080000</f>
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="H8">
+        <v>35000000</v>
+      </c>
+      <c r="I8">
+        <f>H8*0.15</f>
+        <v>5250000</v>
+      </c>
+      <c r="J8">
+        <f>I8-1080000</f>
+        <v>4170000</v>
+      </c>
+      <c r="K8">
+        <f>J8/(21*107)/12</f>
+        <v>154.65064530485091</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -941,15 +988,15 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>15416</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>7450</v>
@@ -957,7 +1004,7 @@
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="1">
         <v>2300</v>
@@ -969,7 +1016,11 @@
       </c>
       <c r="C13" s="1">
         <f>C10*D2</f>
-        <v>1322.6928</v>
+        <v>1372.8</v>
+      </c>
+      <c r="F13">
+        <f>C14*0.37</f>
+        <v>164.05127272727273</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -978,87 +1029,448 @@
       </c>
       <c r="C14" s="1">
         <f>(C10-C11-C13-C12)/11</f>
-        <v>394.84610909090912</v>
+        <v>443.38181818181818</v>
       </c>
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="1">
         <f>C10-C11-C13-C14-C12</f>
-        <v>3948.4610909090907</v>
+        <v>4433.818181818182</v>
       </c>
       <c r="D15">
         <f>C15*0.4</f>
-        <v>1579.3844363636363</v>
+        <v>1773.5272727272729</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C15*D4</f>
+        <v>665.07272727272732</v>
+      </c>
+      <c r="I16">
+        <f>177*12*2459</f>
+        <v>5222916</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>36</v>
-      </c>
-      <c r="C16" s="1">
-        <f>C14*D4</f>
-        <v>157.93844363636367</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="1">
         <f>C10*D6</f>
-        <v>770.80000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <f>C15-C16-C17+64</f>
-        <v>3083.722647272727</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+        <v>2872.7454545454548</v>
+      </c>
+      <c r="D18">
+        <v>2450</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18-D18</f>
+        <v>422.74545454545478</v>
+      </c>
+      <c r="F18">
+        <f>E18/C10</f>
+        <v>2.6421590909090922E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <f>-(D7-(C18/C10))</f>
+        <v>-3.0453409090909073E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="5">
-        <f>-(D7-((C18)/C10))</f>
-        <v>3.3902910789224139E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="1">
         <f>C23/C18</f>
-        <v>22.699836530989145</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+        <v>22.974538135834582</v>
+      </c>
+      <c r="D21">
+        <v>107</v>
+      </c>
+      <c r="F21">
+        <f>D21*C21</f>
+        <v>2458.2755805343004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="1">
         <f>C21*C10</f>
-        <v>349940.67996172869</v>
+        <v>367592.61017335329</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22*D21</f>
+        <v>39332409.288548805</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <f>C10*F21</f>
+        <v>39332409.288548805</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1">
+        <v>66000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B4BBB-4BF9-485E-A203-0A2369EC5255}">
+  <dimension ref="B2:N23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>2450</v>
+      </c>
+      <c r="J3">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f>I3/11</f>
+        <v>222.72727272727272</v>
+      </c>
+      <c r="J4" s="1">
+        <f>I3-I4-I5</f>
+        <v>2138.1818181818185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f>I4*0.4</f>
+        <v>89.090909090909093</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="H7">
+        <v>26000000</v>
+      </c>
+      <c r="I7">
+        <f>H7*0.15</f>
+        <v>3900000</v>
+      </c>
+      <c r="J7">
+        <f>I7-1080000</f>
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="H8">
+        <v>35000000</v>
+      </c>
+      <c r="I8">
+        <f>H8*0.15</f>
+        <v>5250000</v>
+      </c>
+      <c r="J8">
+        <f>I8-1080000</f>
+        <v>4170000</v>
+      </c>
+      <c r="K8">
+        <f>(J8/(3597))/12</f>
+        <v>96.608284681679166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>C14*0.37</f>
+        <v>82.409090909090907</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(C10-C11-C13-C12)/11</f>
+        <v>222.72727272727272</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C10-C11-C13-C14-C12</f>
+        <v>2227.2727272727275</v>
+      </c>
+      <c r="D15">
+        <f>C15*0.4</f>
+        <v>890.90909090909099</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C14*0.44</f>
+        <v>98</v>
+      </c>
+      <c r="I16">
+        <f>177*12*2459</f>
+        <v>5222916</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>196</v>
+      </c>
+      <c r="J17">
+        <v>78</v>
+      </c>
+      <c r="K17">
+        <f>I17+J17</f>
+        <v>274</v>
+      </c>
+      <c r="L17">
+        <f>K17/9000</f>
+        <v>3.0444444444444444E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15-C16-C17+64</f>
+        <v>2193.2727272727275</v>
+      </c>
+      <c r="D18">
+        <v>2450</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18-D18</f>
+        <v>-256.72727272727252</v>
+      </c>
+      <c r="F18">
+        <f>E18/C10</f>
+        <v>-2.5932047750229548E-2</v>
+      </c>
+      <c r="I18">
+        <v>402</v>
+      </c>
+      <c r="J18">
+        <v>161</v>
+      </c>
+      <c r="K18">
+        <f>I18+J18</f>
+        <v>563</v>
+      </c>
+      <c r="L18">
+        <f>K18/15500</f>
+        <v>3.6322580645161293E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <f>-(D7-(C18/C10))</f>
+        <v>1.1542699724517935E-2</v>
+      </c>
+      <c r="I19">
+        <v>447</v>
+      </c>
+      <c r="J19">
+        <v>179</v>
+      </c>
+      <c r="K19">
+        <f>I19+J19</f>
+        <v>626</v>
+      </c>
+      <c r="L19">
+        <f>K19/20500</f>
+        <v>3.0536585365853658E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C23/C18</f>
+        <v>30.092016911216113</v>
+      </c>
+      <c r="D21">
+        <v>120</v>
+      </c>
+      <c r="F21">
+        <f>D21*C21</f>
+        <v>3611.0420293459338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21*C10</f>
+        <v>297910.96742103953</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22*D21</f>
+        <v>35749316.090524741</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <f>C10*F21</f>
+        <v>35749316.090524748</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>70000</v>
+        <v>66000</v>
       </c>
     </row>
   </sheetData>

--- a/document/costPercent.xlsx
+++ b/document/costPercent.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8585A25C-134A-4211-A2E0-536A5D757D14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D22BAC-F103-4252-8DF5-113DE709128E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2490" windowWidth="21840" windowHeight="13140" activeTab="2" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
+    <workbookView xWindow="7020" yWindow="3060" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,10 +864,306 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7549AF1C-E967-42EE-89AB-7564CAF939E2}">
-  <dimension ref="B2:N23"/>
+  <dimension ref="B2:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="3">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>2450</v>
+      </c>
+      <c r="J3">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1">
+        <f>I3/11</f>
+        <v>222.72727272727272</v>
+      </c>
+      <c r="J4" s="1">
+        <f>I3-I4-I5</f>
+        <v>2138.1818181818185</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <f>I4*0.4</f>
+        <v>89.090909090909093</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="H7">
+        <v>26000000</v>
+      </c>
+      <c r="I7">
+        <f>H7*0.15</f>
+        <v>3900000</v>
+      </c>
+      <c r="J7">
+        <f>I7-1080000</f>
+        <v>2820000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="H8">
+        <v>35000000</v>
+      </c>
+      <c r="I8">
+        <f>H8*0.15</f>
+        <v>5250000</v>
+      </c>
+      <c r="J8">
+        <f>I8-1080000</f>
+        <v>4170000</v>
+      </c>
+      <c r="K8">
+        <f>J8/(21*107)/12</f>
+        <v>154.65064530485091</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <f>C10*D2</f>
+        <v>1372.8</v>
+      </c>
+      <c r="F13">
+        <f>C14*0.37</f>
+        <v>164.05127272727273</v>
+      </c>
+      <c r="O13">
+        <f>24640*0.05</f>
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1">
+        <f>(C10-C11-C13-C12)/11</f>
+        <v>443.38181818181818</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1">
+        <f>C10-C11-C13-C14-C12</f>
+        <v>4433.818181818182</v>
+      </c>
+      <c r="D15">
+        <f>C15*0.4</f>
+        <v>1773.5272727272729</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C15*D4</f>
+        <v>665.07272727272732</v>
+      </c>
+      <c r="I16">
+        <f>177*12*2459</f>
+        <v>5222916</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C10*D6</f>
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <f>C15-C16-C17+64</f>
+        <v>2872.7454545454548</v>
+      </c>
+      <c r="D18">
+        <v>2450</v>
+      </c>
+      <c r="E18" s="1">
+        <f>C18-D18</f>
+        <v>422.74545454545478</v>
+      </c>
+      <c r="F18">
+        <f>E18/C10</f>
+        <v>2.6421590909090922E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="3">
+        <f>-(D7-(C18/C10))</f>
+        <v>-3.0453409090909073E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1">
+        <f>C23/C18</f>
+        <v>22.974538135834582</v>
+      </c>
+      <c r="D21">
+        <v>107</v>
+      </c>
+      <c r="F21">
+        <f>D21*C21</f>
+        <v>2458.2755805343004</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1">
+        <f>C21*C10</f>
+        <v>367592.61017335329</v>
+      </c>
+      <c r="D22" s="1">
+        <f>C22*D21</f>
+        <v>39332409.288548805</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22">
+        <f>C10*F21</f>
+        <v>39332409.288548805</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1">
+        <v>66000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B4BBB-4BF9-485E-A203-0A2369EC5255}">
+  <dimension ref="B2:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -918,7 +1214,7 @@
         <v>44</v>
       </c>
       <c r="D4" s="4">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1">
@@ -951,7 +1247,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4">
-        <v>0.21</v>
+        <v>0.1</v>
       </c>
       <c r="H7">
         <v>26000000</v>
@@ -979,8 +1275,8 @@
         <v>4170000</v>
       </c>
       <c r="K8">
-        <f>J8/(21*107)/12</f>
-        <v>154.65064530485091</v>
+        <f>(J8/(3597))/12</f>
+        <v>96.608284681679166</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -991,7 +1287,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>16000</v>
+        <v>15700</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -999,7 +1295,7 @@
         <v>33</v>
       </c>
       <c r="C11" s="1">
-        <v>7450</v>
+        <v>9900</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -1016,11 +1312,11 @@
       </c>
       <c r="C13" s="1">
         <f>C10*D2</f>
-        <v>1372.8</v>
+        <v>1347.06</v>
       </c>
       <c r="F13">
         <f>C14*0.37</f>
-        <v>164.05127272727273</v>
+        <v>154.82616363636365</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -1028,8 +1324,8 @@
         <v>27</v>
       </c>
       <c r="C14" s="1">
-        <f>(C10-C11-C13-C12)/11</f>
-        <v>443.38181818181818</v>
+        <f>(C10-7450-C13-C12)/11</f>
+        <v>418.44909090909096</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -1039,11 +1335,11 @@
       </c>
       <c r="C15" s="1">
         <f>C10-C11-C13-C14-C12</f>
-        <v>4433.818181818182</v>
+        <v>1734.4909090909096</v>
       </c>
       <c r="D15">
         <f>C15*0.4</f>
-        <v>1773.5272727272729</v>
+        <v>693.79636363636382</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -1051,8 +1347,8 @@
         <v>35</v>
       </c>
       <c r="C16" s="1">
-        <f>C15*D4</f>
-        <v>665.07272727272732</v>
+        <f>C14*D4</f>
+        <v>188.30209090909094</v>
       </c>
       <c r="I16">
         <f>177*12*2459</f>
@@ -1060,297 +1356,7 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="1">
-        <f>C10*D6</f>
-        <v>960</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="1">
-        <f>C15-C16-C17+64</f>
-        <v>2872.7454545454548</v>
-      </c>
-      <c r="D18">
-        <v>2450</v>
-      </c>
-      <c r="E18" s="1">
-        <f>C18-D18</f>
-        <v>422.74545454545478</v>
-      </c>
-      <c r="F18">
-        <f>E18/C10</f>
-        <v>2.6421590909090922E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="3">
-        <f>-(D7-(C18/C10))</f>
-        <v>-3.0453409090909073E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="1">
-        <f>C23/C18</f>
-        <v>22.974538135834582</v>
-      </c>
-      <c r="D21">
-        <v>107</v>
-      </c>
-      <c r="F21">
-        <f>D21*C21</f>
-        <v>2458.2755805343004</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1">
-        <f>C21*C10</f>
-        <v>367592.61017335329</v>
-      </c>
-      <c r="D22" s="1">
-        <f>C22*D21</f>
-        <v>39332409.288548805</v>
-      </c>
-      <c r="E22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F22">
-        <f>C10*F21</f>
-        <v>39332409.288548805</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="1">
-        <v>66000</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B4BBB-4BF9-485E-A203-0A2369EC5255}">
-  <dimension ref="B2:N23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3">
-        <v>8.5800000000000001E-2</v>
-      </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="I3">
-        <v>2450</v>
-      </c>
-      <c r="J3">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.15</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <f>I3/11</f>
-        <v>222.72727272727272</v>
-      </c>
-      <c r="J4" s="1">
-        <f>I3-I4-I5</f>
-        <v>2138.1818181818185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="I5">
-        <f>I4*0.4</f>
-        <v>89.090909090909093</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4">
-        <v>0.21</v>
-      </c>
-      <c r="H7">
-        <v>26000000</v>
-      </c>
-      <c r="I7">
-        <f>H7*0.15</f>
-        <v>3900000</v>
-      </c>
-      <c r="J7">
-        <f>I7-1080000</f>
-        <v>2820000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="H8">
-        <v>35000000</v>
-      </c>
-      <c r="I8">
-        <f>H8*0.15</f>
-        <v>5250000</v>
-      </c>
-      <c r="J8">
-        <f>I8-1080000</f>
-        <v>4170000</v>
-      </c>
-      <c r="K8">
-        <f>(J8/(3597))/12</f>
-        <v>96.608284681679166</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9900</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7450</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>C14*0.37</f>
-        <v>82.409090909090907</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1">
-        <f>(C10-C11-C13-C12)/11</f>
-        <v>222.72727272727272</v>
-      </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="1">
-        <f>C10-C11-C13-C14-C12</f>
-        <v>2227.2727272727275</v>
-      </c>
-      <c r="D15">
-        <f>C15*0.4</f>
-        <v>890.90909090909099</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1">
-        <f>C14*0.44</f>
-        <v>98</v>
-      </c>
-      <c r="I16">
-        <f>177*12*2459</f>
-        <v>5222916</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>36</v>
       </c>
@@ -1372,24 +1378,24 @@
         <v>3.0444444444444444E-2</v>
       </c>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="1">
-        <f>C15-C16-C17+64</f>
-        <v>2193.2727272727275</v>
+        <f>C15-C16-C17</f>
+        <v>1546.1888181818185</v>
       </c>
       <c r="D18">
         <v>2450</v>
       </c>
       <c r="E18" s="1">
         <f>C18-D18</f>
-        <v>-256.72727272727252</v>
+        <v>-903.81118181818147</v>
       </c>
       <c r="F18">
         <f>E18/C10</f>
-        <v>-2.5932047750229548E-2</v>
+        <v>-5.7567591198610282E-2</v>
       </c>
       <c r="I18">
         <v>402</v>
@@ -1406,13 +1412,13 @@
         <v>3.6322580645161293E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3">
         <f>-(D7-(C18/C10))</f>
-        <v>1.1542699724517935E-2</v>
+        <v>-1.5166357845975559E-3</v>
       </c>
       <c r="I19">
         <v>447</v>
@@ -1429,48 +1435,123 @@
         <v>3.0536585365853658E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C20" s="3">
+        <f>(C15-C16)/C10</f>
+        <v>9.848336421540245E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1">
         <f>C23/C18</f>
-        <v>30.092016911216113</v>
+        <v>22.636303916074692</v>
       </c>
       <c r="D21">
         <v>120</v>
       </c>
       <c r="F21">
         <f>D21*C21</f>
-        <v>3611.0420293459338</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+        <v>2716.3564699289632</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="1">
         <f>C21*C10</f>
-        <v>297910.96742103953</v>
+        <v>355389.97148237267</v>
       </c>
       <c r="D22" s="1">
         <f>C22*D21</f>
-        <v>35749316.090524741</v>
+        <v>42646796.577884719</v>
       </c>
       <c r="E22" t="s">
         <v>42</v>
       </c>
       <c r="F22">
         <f>C10*F21</f>
-        <v>35749316.090524748</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+        <v>42646796.577884719</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>66000</v>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L24">
+        <v>3772</v>
+      </c>
+      <c r="M24">
+        <v>5100</v>
+      </c>
+      <c r="N24">
+        <v>9400</v>
+      </c>
+      <c r="O24">
+        <f>(M24-L24)/M24</f>
+        <v>0.26039215686274508</v>
+      </c>
+      <c r="P24">
+        <f>(M24-L24)/N24</f>
+        <v>0.14127659574468085</v>
+      </c>
+      <c r="Q24">
+        <f>2201/N24</f>
+        <v>0.23414893617021276</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <f>C18*C21*D21</f>
+        <v>4200000</v>
+      </c>
+      <c r="L25">
+        <v>7450</v>
+      </c>
+      <c r="M25">
+        <v>9900</v>
+      </c>
+      <c r="N25">
+        <v>15700</v>
+      </c>
+      <c r="O25">
+        <f t="shared" ref="O25:O26" si="0">(M25-L25)/M25</f>
+        <v>0.24747474747474749</v>
+      </c>
+      <c r="P25">
+        <f t="shared" ref="P25:P26" si="1">(M25-L25)/N25</f>
+        <v>0.15605095541401273</v>
+      </c>
+      <c r="Q25">
+        <f>4017/N25</f>
+        <v>0.25585987261146498</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>11122</v>
+      </c>
+      <c r="M26">
+        <v>14400</v>
+      </c>
+      <c r="N26">
+        <v>20500</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>0.22763888888888889</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.15990243902439025</v>
       </c>
     </row>
   </sheetData>

--- a/document/costPercent.xlsx
+++ b/document/costPercent.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\project\CMW_V2\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aodrl\Desktop\Project\CMW_V2\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D22BAC-F103-4252-8DF5-113DE709128E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA725E36-11FD-425D-B1B0-C15DA13B4128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="3060" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
+    <workbookView xWindow="3660" yWindow="2850" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{84FF5F26-C95F-4554-8051-5DA36F55B2F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
   <si>
     <t>원가</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +200,14 @@
   </si>
   <si>
     <t>순익 4,600만원 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,12 +235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,7 +263,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1162,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF4B4BBB-4BF9-485E-A203-0A2369EC5255}">
   <dimension ref="B2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1238,7 +1256,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="4">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -1247,7 +1265,7 @@
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="4">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="H7">
         <v>26000000</v>
@@ -1287,7 +1305,7 @@
         <v>32</v>
       </c>
       <c r="C10" s="1">
-        <v>15700</v>
+        <v>15735</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -1312,11 +1330,11 @@
       </c>
       <c r="C13" s="1">
         <f>C10*D2</f>
-        <v>1347.06</v>
+        <v>1350.0630000000001</v>
       </c>
       <c r="F13">
         <f>C14*0.37</f>
-        <v>154.82616363636365</v>
+        <v>155.90242636363635</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -1325,7 +1343,7 @@
       </c>
       <c r="C14" s="1">
         <f>(C10-7450-C13-C12)/11</f>
-        <v>418.44909090909096</v>
+        <v>421.35790909090906</v>
       </c>
       <c r="N14" s="1"/>
     </row>
@@ -1335,11 +1353,11 @@
       </c>
       <c r="C15" s="1">
         <f>C10-C11-C13-C14-C12</f>
-        <v>1734.4909090909096</v>
+        <v>1763.5790909090911</v>
       </c>
       <c r="D15">
         <f>C15*0.4</f>
-        <v>693.79636363636382</v>
+        <v>705.43163636363647</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
@@ -1348,7 +1366,7 @@
       </c>
       <c r="C16" s="1">
         <f>C14*D4</f>
-        <v>188.30209090909094</v>
+        <v>189.61105909090909</v>
       </c>
       <c r="I16">
         <f>177*12*2459</f>
@@ -1361,7 +1379,8 @@
         <v>36</v>
       </c>
       <c r="C17" s="1">
-        <v>0</v>
+        <f>C10*D6</f>
+        <v>786.75</v>
       </c>
       <c r="I17">
         <v>196</v>
@@ -1384,18 +1403,18 @@
       </c>
       <c r="C18" s="1">
         <f>C15-C16-C17</f>
-        <v>1546.1888181818185</v>
+        <v>787.218031818182</v>
       </c>
       <c r="D18">
         <v>2450</v>
       </c>
       <c r="E18" s="1">
         <f>C18-D18</f>
-        <v>-903.81118181818147</v>
+        <v>-1662.781968181818</v>
       </c>
       <c r="F18">
         <f>E18/C10</f>
-        <v>-5.7567591198610282E-2</v>
+        <v>-0.10567410029754166</v>
       </c>
       <c r="I18">
         <v>402</v>
@@ -1418,7 +1437,7 @@
       </c>
       <c r="C19" s="3">
         <f>-(D7-(C18/C10))</f>
-        <v>-1.5166357845975559E-3</v>
+        <v>2.9744634139301784E-5</v>
       </c>
       <c r="I19">
         <v>447</v>
@@ -1438,7 +1457,7 @@
     <row r="20" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C20" s="3">
         <f>(C15-C16)/C10</f>
-        <v>9.848336421540245E-2</v>
+        <v>0.1000297446341393</v>
       </c>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
@@ -1447,14 +1466,14 @@
       </c>
       <c r="C21" s="1">
         <f>C23/C18</f>
-        <v>22.636303916074692</v>
+        <v>19.054441582537887</v>
       </c>
       <c r="D21">
         <v>120</v>
       </c>
       <c r="F21">
         <f>D21*C21</f>
-        <v>2716.3564699289632</v>
+        <v>2286.5329899045464</v>
       </c>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.3">
@@ -1463,18 +1482,18 @@
       </c>
       <c r="C22" s="1">
         <f>C21*C10</f>
-        <v>355389.97148237267</v>
+        <v>299821.63830123364</v>
       </c>
       <c r="D22" s="1">
         <f>C22*D21</f>
-        <v>42646796.577884719</v>
+        <v>35978596.596148036</v>
       </c>
       <c r="E22" t="s">
         <v>42</v>
       </c>
       <c r="F22">
         <f>C10*F21</f>
-        <v>42646796.577884719</v>
+        <v>35978596.596148036</v>
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.3">
@@ -1482,7 +1501,7 @@
         <v>41</v>
       </c>
       <c r="C23" s="1">
-        <v>35000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.3">
@@ -1511,7 +1530,7 @@
     <row r="25" spans="2:17" x14ac:dyDescent="0.3">
       <c r="D25">
         <f>C18*C21*D21</f>
-        <v>4200000</v>
+        <v>1800000</v>
       </c>
       <c r="L25">
         <v>7450</v>
@@ -1562,5 +1581,181 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85114E52-5F97-41A2-BCDE-885D02851CF6}">
+  <dimension ref="D2:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D3" s="6">
+        <v>27600</v>
+      </c>
+      <c r="E3" s="6">
+        <v>21207</v>
+      </c>
+      <c r="F3" s="6">
+        <f>D3-E3</f>
+        <v>6393</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3/11</f>
+        <v>581.18181818181813</v>
+      </c>
+      <c r="H3" s="6">
+        <f>G3*0.45</f>
+        <v>261.53181818181815</v>
+      </c>
+    </row>
+    <row r="4" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
+        <f>G3+H3</f>
+        <v>842.71363636363628</v>
+      </c>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D6" s="6">
+        <v>34600</v>
+      </c>
+      <c r="E6" s="6">
+        <v>27600</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2700</v>
+      </c>
+      <c r="G6" s="6">
+        <f>D6*0.0858</f>
+        <v>2968.68</v>
+      </c>
+      <c r="H6" s="6">
+        <f>D6-E6-F6-G6</f>
+        <v>1331.3200000000002</v>
+      </c>
+      <c r="I6" s="6">
+        <f>H6/11</f>
+        <v>121.02909090909093</v>
+      </c>
+      <c r="J6" s="6">
+        <f>I6*0.45</f>
+        <v>54.463090909090916</v>
+      </c>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6">
+        <f>I6+J6</f>
+        <v>175.49218181818185</v>
+      </c>
+      <c r="K7" s="6">
+        <f>H4+J7</f>
+        <v>1018.2058181818181</v>
+      </c>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>34600</v>
+      </c>
+      <c r="E9">
+        <v>21207</v>
+      </c>
+      <c r="F9">
+        <f>D9-E9</f>
+        <v>13393</v>
+      </c>
+      <c r="G9">
+        <f>F9/11</f>
+        <v>1217.5454545454545</v>
+      </c>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O13">
+        <v>5550</v>
+      </c>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>34600</v>
+      </c>
+      <c r="J14">
+        <v>27600</v>
+      </c>
+      <c r="K14">
+        <v>2969</v>
+      </c>
+      <c r="L14">
+        <v>121</v>
+      </c>
+      <c r="M14">
+        <v>54</v>
+      </c>
+      <c r="N14">
+        <v>2700</v>
+      </c>
+      <c r="O14">
+        <f>I14-J14-K14-L14-M14-N14</f>
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O15">
+        <f>O13+O14</f>
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>34600</v>
+      </c>
+      <c r="J18">
+        <v>21207</v>
+      </c>
+      <c r="K18">
+        <v>2969</v>
+      </c>
+      <c r="L18">
+        <v>702</v>
+      </c>
+      <c r="M18">
+        <v>316</v>
+      </c>
+      <c r="N18">
+        <v>2700</v>
+      </c>
+      <c r="O18">
+        <f>I18-J18-K18-L18-M18-N18</f>
+        <v>6706</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>